--- a/testData/outputfile.xlsx
+++ b/testData/outputfile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>HC_MenuLists</t>
   </si>
@@ -31,43 +31,7 @@
     <t>Enter a valid mobile number</t>
   </si>
   <si>
-    <t>Health Insurance Plans</t>
-  </si>
-  <si>
-    <t>Family Health Insurance</t>
-  </si>
-  <si>
-    <t>Senior Citizen Health Insurance</t>
-  </si>
-  <si>
-    <t>Health Insurance For Parents</t>
-  </si>
-  <si>
-    <t>Best Health Insurance Plans</t>
-  </si>
-  <si>
-    <t>Maternity Insurance</t>
-  </si>
-  <si>
-    <t>Health Insurance Portability</t>
-  </si>
-  <si>
-    <t>Mediclaim Policy</t>
-  </si>
-  <si>
-    <t>Critical Illness Insurance</t>
-  </si>
-  <si>
-    <t>Health Insurance Calculator</t>
-  </si>
-  <si>
-    <t>Health Insurance Companies</t>
-  </si>
-  <si>
-    <t>Health Insurance For NRIs</t>
-  </si>
-  <si>
-    <t>Health Insurance Claim</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -136,62 +100,62 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/testData/outputfile.xlsx
+++ b/testData/outputfile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>HC_MenuLists</t>
   </si>
@@ -28,10 +28,67 @@
     <t>Price</t>
   </si>
   <si>
+    <t>National Insurance
+Overseas Business &amp; Holiday</t>
+  </si>
+  <si>
+    <t>₹2,188</t>
+  </si>
+  <si>
+    <t>Niva Bupa (formerly known as Max Bupa)
+Travel Assure</t>
+  </si>
+  <si>
+    <t>₹2,564</t>
+  </si>
+  <si>
+    <t>Care Health
+Explore Silver - Excluding US &amp; Canada</t>
+  </si>
+  <si>
+    <t>₹2,646</t>
+  </si>
+  <si>
     <t>Enter a valid mobile number</t>
   </si>
   <si>
-    <t/>
+    <t>Health Insurance Plans</t>
+  </si>
+  <si>
+    <t>Family Health Insurance</t>
+  </si>
+  <si>
+    <t>Senior Citizen Health Insurance</t>
+  </si>
+  <si>
+    <t>Health Insurance For Parents</t>
+  </si>
+  <si>
+    <t>Best Health Insurance Plans</t>
+  </si>
+  <si>
+    <t>Maternity Insurance</t>
+  </si>
+  <si>
+    <t>Health Insurance Portability</t>
+  </si>
+  <si>
+    <t>Mediclaim Policy</t>
+  </si>
+  <si>
+    <t>Critical Illness Insurance</t>
+  </si>
+  <si>
+    <t>Health Insurance Calculator</t>
+  </si>
+  <si>
+    <t>Health Insurance Companies</t>
+  </si>
+  <si>
+    <t>Health Insurance For NRIs</t>
+  </si>
+  <si>
+    <t>Health Insurance Claim</t>
   </si>
 </sst>
 </file>
@@ -95,67 +152,67 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -178,7 +235,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -188,7 +245,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -202,6 +259,30 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
